--- a/maven_use_base/src/main/resources/retry1.xlsx
+++ b/maven_use_base/src/main/resources/retry1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{CD49D1A6-9BD5-45EE-97A5-EFCD7B7529A1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="9360" windowWidth="16200" xWindow="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1740"/>
+    <workbookView activeTab="1" windowHeight="9360" windowWidth="16200" xWindow="555" yWindow="1740"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" r:id="rId1" sheetId="1"/>
@@ -234,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -283,74 +282,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -370,7 +301,7 @@
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="CEEACA" val="window"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -405,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,26 +369,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,23 +404,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -901,11 +798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
